--- a/dataSources/PRW Projects Spreadsheet 11_25_2020_TEST.xlsx
+++ b/dataSources/PRW Projects Spreadsheet 11_25_2020_TEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kpotter1/otherCode/paulrwilliamsNew/dataSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409F0883-6961-1D4F-A081-89C2C20F8948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0D0FBA-713C-FD4E-B00C-FC0CBA37DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="500" windowWidth="25540" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="6540" windowWidth="25540" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="1494">
   <si>
     <t>Name</t>
   </si>
@@ -4748,9 +4748,6 @@
   </si>
   <si>
     <t>Architecture Magazine (1924); LA Times; usmodernist.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Notes</t>
   </si>
   <si>
     <t>Ebony Magazine; usmodernist.org</t>
@@ -5243,7 +5240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5481,29 +5478,23 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5514,10 +5505,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5837,9 +5827,9 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5892,7 +5882,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="69" t="s">
-        <v>1446</v>
+        <v>10</v>
       </c>
       <c r="M1" s="69" t="s">
         <v>1436</v>
@@ -5981,7 +5971,7 @@
       <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="105" t="s">
         <v>1440</v>
       </c>
       <c r="K3" s="8" t="s">
@@ -6023,7 +6013,7 @@
       </c>
       <c r="E4" s="43"/>
       <c r="F4" s="77" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G4" s="80" t="s">
         <v>1437</v>
@@ -6038,8 +6028,8 @@
       <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="113" t="s">
-        <v>1470</v>
+      <c r="L4" s="110" t="s">
+        <v>1469</v>
       </c>
       <c r="M4" s="67" t="s">
         <v>1438</v>
@@ -6061,7 +6051,7 @@
     </row>
     <row r="5" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>25</v>
@@ -6076,7 +6066,7 @@
         <v>1922</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G5" s="80" t="s">
         <v>28</v>
@@ -6092,10 +6082,10 @@
         <v>21</v>
       </c>
       <c r="L5" s="70" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -6130,21 +6120,21 @@
         <v>1443</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="8" t="s">
         <v>31</v>
       </c>
       <c r="J6" s="92" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="67"/>
       <c r="M6" s="70" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -6181,7 +6171,7 @@
         <v>1443</v>
       </c>
       <c r="G7" s="93" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H7" s="52" t="s">
         <v>26</v>
@@ -6189,7 +6179,7 @@
       <c r="I7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="107" t="s">
+      <c r="J7" s="105" t="s">
         <v>1442</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -6218,7 +6208,7 @@
     </row>
     <row r="8" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>33</v>
@@ -6232,14 +6222,14 @@
         <v>1443</v>
       </c>
       <c r="G8" s="80" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="108" t="s">
-        <v>1466</v>
+      <c r="J8" s="106" t="s">
+        <v>1465</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>21</v>
@@ -6248,7 +6238,7 @@
         <v>1378</v>
       </c>
       <c r="M8" s="67" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -6281,7 +6271,7 @@
         <v>1443</v>
       </c>
       <c r="G9" s="89" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H9" s="54" t="s">
         <v>37</v>
@@ -6289,8 +6279,8 @@
       <c r="I9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="107" t="s">
-        <v>1456</v>
+      <c r="J9" s="105" t="s">
+        <v>1455</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>21</v>
@@ -6316,7 +6306,7 @@
     </row>
     <row r="10" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>33</v>
@@ -6327,24 +6317,24 @@
       <c r="F10" s="77" t="s">
         <v>1443</v>
       </c>
-      <c r="G10" s="102" t="s">
-        <v>1458</v>
+      <c r="G10" s="101" t="s">
+        <v>1457</v>
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="109" t="s">
-        <v>1460</v>
+      <c r="J10" s="107" t="s">
+        <v>1459</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="70" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="M10" s="70" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -6414,7 +6404,7 @@
     </row>
     <row r="12" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>40</v>
@@ -6428,23 +6418,23 @@
         <v>1443</v>
       </c>
       <c r="G12" s="90" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H12" s="52"/>
       <c r="I12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="92" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="112" t="s">
-        <v>1465</v>
-      </c>
-      <c r="M12" s="114" t="s">
-        <v>1463</v>
+      <c r="L12" s="109" t="s">
+        <v>1464</v>
+      </c>
+      <c r="M12" s="111" t="s">
+        <v>1462</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -6526,7 +6516,7 @@
         <v>1295</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="8" t="s">
@@ -6537,10 +6527,10 @@
         <v>42</v>
       </c>
       <c r="L14" s="95" t="s">
+        <v>1470</v>
+      </c>
+      <c r="M14" s="97" t="s">
         <v>1471</v>
-      </c>
-      <c r="M14" s="97" t="s">
-        <v>1472</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -7142,7 +7132,7 @@
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="80" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H28" s="52"/>
       <c r="I28" s="8" t="s">
@@ -7236,7 +7226,7 @@
       <c r="E30" s="43"/>
       <c r="F30" s="44"/>
       <c r="G30" s="80" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H30" s="52" t="s">
         <v>26</v>
@@ -7312,7 +7302,7 @@
     </row>
     <row r="32" spans="1:27" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>92</v>
@@ -7328,7 +7318,7 @@
       </c>
       <c r="F32" s="44"/>
       <c r="G32" s="80" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H32" s="52"/>
       <c r="I32" s="8" t="s">
@@ -8868,7 +8858,7 @@
         <v>1928</v>
       </c>
       <c r="F67" s="44"/>
-      <c r="G67" s="104" t="s">
+      <c r="G67" s="103" t="s">
         <v>155</v>
       </c>
       <c r="H67" s="52"/>
@@ -8911,7 +8901,7 @@
         <v>1928</v>
       </c>
       <c r="F68" s="44"/>
-      <c r="G68" s="104" t="s">
+      <c r="G68" s="103" t="s">
         <v>155</v>
       </c>
       <c r="H68" s="52"/>
@@ -8998,7 +8988,7 @@
       </c>
       <c r="F70" s="44"/>
       <c r="G70" s="80" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H70" s="52"/>
       <c r="I70" s="8" t="s">
@@ -10246,7 +10236,7 @@
       </c>
       <c r="F98" s="44"/>
       <c r="G98" s="80" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H98" s="52"/>
       <c r="I98" s="8" t="s">
@@ -11993,7 +11983,7 @@
       </c>
       <c r="F137" s="44"/>
       <c r="G137" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H137" s="55"/>
       <c r="I137" s="8" t="s">
@@ -13206,10 +13196,10 @@
       <c r="K164" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L164" s="110" t="s">
+      <c r="L164" s="108" t="s">
         <v>454</v>
       </c>
-      <c r="M164" s="110"/>
+      <c r="M164" s="108"/>
       <c r="N164" s="9"/>
       <c r="O164" s="9"/>
       <c r="P164" s="9"/>
@@ -14483,7 +14473,7 @@
       </c>
       <c r="F193" s="44"/>
       <c r="G193" s="80" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H193" s="52" t="s">
         <v>530</v>
@@ -14534,7 +14524,7 @@
       </c>
       <c r="F194" s="44"/>
       <c r="G194" s="80" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H194" s="52"/>
       <c r="I194" s="8" t="s">
@@ -14630,7 +14620,7 @@
       </c>
       <c r="F196" s="44"/>
       <c r="G196" s="80" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H196" s="52" t="s">
         <v>554</v>
@@ -15747,7 +15737,7 @@
       </c>
       <c r="F221" s="44"/>
       <c r="G221" s="80" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H221" s="52"/>
       <c r="I221" s="8" t="s">
@@ -22134,7 +22124,7 @@
       </c>
       <c r="F366" s="44"/>
       <c r="G366" s="80" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H366" s="52"/>
       <c r="I366" s="8" t="s">
@@ -22683,7 +22673,7 @@
       </c>
       <c r="F379" s="44"/>
       <c r="G379" s="80" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H379" s="52"/>
       <c r="I379" s="8" t="s">
@@ -22864,8 +22854,8 @@
         <v>1947</v>
       </c>
       <c r="F383" s="44"/>
-      <c r="G383" s="105" t="s">
-        <v>1484</v>
+      <c r="G383" s="104" t="s">
+        <v>1483</v>
       </c>
       <c r="H383" s="52"/>
       <c r="I383" s="8" t="s">
@@ -23078,7 +23068,7 @@
       </c>
       <c r="F388" s="44"/>
       <c r="G388" s="80" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H388" s="52"/>
       <c r="I388" s="8" t="s">
@@ -23417,7 +23407,7 @@
         <v>1951</v>
       </c>
       <c r="F396" s="44"/>
-      <c r="G396" s="104" t="s">
+      <c r="G396" s="103" t="s">
         <v>338</v>
       </c>
       <c r="H396" s="52" t="s">
@@ -23462,7 +23452,7 @@
         <v>1952</v>
       </c>
       <c r="F397" s="44"/>
-      <c r="G397" s="104" t="s">
+      <c r="G397" s="103" t="s">
         <v>79</v>
       </c>
       <c r="H397" s="52"/>
@@ -23594,7 +23584,7 @@
       <c r="E400" s="43"/>
       <c r="F400" s="44"/>
       <c r="G400" s="80" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H400" s="52"/>
       <c r="I400" s="8" t="s">
@@ -23930,7 +23920,7 @@
       <c r="E408" s="43"/>
       <c r="F408" s="44"/>
       <c r="G408" s="80" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H408" s="52"/>
       <c r="I408" s="8" t="s">
@@ -24238,8 +24228,8 @@
         <v>1950</v>
       </c>
       <c r="F415" s="44"/>
-      <c r="G415" s="105" t="s">
-        <v>1485</v>
+      <c r="G415" s="104" t="s">
+        <v>1484</v>
       </c>
       <c r="H415" s="52"/>
       <c r="I415" s="21" t="s">
@@ -24585,7 +24575,7 @@
       <c r="E423" s="43"/>
       <c r="F423" s="44"/>
       <c r="G423" s="80" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H423" s="52"/>
       <c r="I423" s="8" t="s">
@@ -24759,7 +24749,7 @@
       </c>
       <c r="F427" s="44"/>
       <c r="G427" s="80" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H427" s="52"/>
       <c r="I427" s="8" t="s">
@@ -25068,7 +25058,7 @@
       </c>
       <c r="F434" s="44"/>
       <c r="G434" s="80" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H434" s="52" t="s">
         <v>802</v>
@@ -25547,7 +25537,7 @@
       </c>
       <c r="F445" s="44"/>
       <c r="G445" s="80" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H445" s="52"/>
       <c r="I445" s="8" t="s">
@@ -25588,7 +25578,7 @@
       </c>
       <c r="F446" s="44"/>
       <c r="G446" s="80" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H446" s="52"/>
       <c r="I446" s="8" t="s">
@@ -26309,7 +26299,7 @@
       </c>
       <c r="F463" s="44"/>
       <c r="G463" s="80" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H463" s="52"/>
       <c r="I463" s="8" t="s">
@@ -26657,7 +26647,7 @@
       <c r="E471" s="43"/>
       <c r="F471" s="44"/>
       <c r="G471" s="80" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H471" s="52"/>
       <c r="I471" s="8" t="s">
@@ -26868,7 +26858,7 @@
       </c>
       <c r="F476" s="44"/>
       <c r="G476" s="80" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H476" s="52"/>
       <c r="I476" s="8" t="s">
@@ -27430,8 +27420,8 @@
       </c>
       <c r="E489" s="43"/>
       <c r="F489" s="44"/>
-      <c r="G489" s="103" t="s">
-        <v>1480</v>
+      <c r="G489" s="102" t="s">
+        <v>1479</v>
       </c>
       <c r="H489" s="52"/>
       <c r="I489" s="8" t="s">
@@ -27605,7 +27595,7 @@
       </c>
       <c r="F493" s="44"/>
       <c r="G493" s="80" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H493" s="52"/>
       <c r="I493" s="21" t="s">
@@ -27736,7 +27726,7 @@
       </c>
       <c r="F496" s="44"/>
       <c r="G496" s="80" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H496" s="52" t="s">
         <v>1244</v>
@@ -28173,8 +28163,8 @@
         <v>1962</v>
       </c>
       <c r="F506" s="44"/>
-      <c r="G506" s="103" t="s">
-        <v>1480</v>
+      <c r="G506" s="102" t="s">
+        <v>1479</v>
       </c>
       <c r="H506" s="52"/>
       <c r="I506" s="8" t="s">
@@ -28309,7 +28299,7 @@
       </c>
       <c r="F509" s="44"/>
       <c r="G509" s="80" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H509" s="52" t="s">
         <v>949</v>
@@ -29496,16 +29486,16 @@
       <c r="B537" s="99" t="s">
         <v>1321</v>
       </c>
-      <c r="C537" s="101"/>
-      <c r="D537" s="101"/>
-      <c r="E537" s="101" t="s">
+      <c r="C537" s="47"/>
+      <c r="D537" s="47"/>
+      <c r="E537" s="47" t="s">
         <v>1322</v>
       </c>
-      <c r="F537" s="101"/>
+      <c r="F537" s="47"/>
       <c r="G537" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="H537" s="106"/>
+      <c r="H537" s="40"/>
       <c r="I537" s="98" t="s">
         <v>20</v>
       </c>
@@ -29515,10 +29505,10 @@
       <c r="K537" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L537" s="111" t="s">
+      <c r="L537" s="66" t="s">
         <v>1324</v>
       </c>
-      <c r="M537" s="111"/>
+      <c r="M537" s="66"/>
       <c r="N537" s="27"/>
       <c r="O537" s="27"/>
       <c r="P537" s="27"/>
@@ -29541,16 +29531,16 @@
       <c r="B538" s="99" t="s">
         <v>1326</v>
       </c>
-      <c r="C538" s="101"/>
-      <c r="D538" s="101"/>
-      <c r="E538" s="101" t="s">
+      <c r="C538" s="47"/>
+      <c r="D538" s="47"/>
+      <c r="E538" s="47" t="s">
         <v>1322</v>
       </c>
-      <c r="F538" s="101"/>
+      <c r="F538" s="47"/>
       <c r="G538" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="H538" s="106"/>
+      <c r="H538" s="40"/>
       <c r="I538" s="98" t="s">
         <v>45</v>
       </c>
@@ -29558,10 +29548,10 @@
       <c r="K538" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L538" s="111" t="s">
+      <c r="L538" s="66" t="s">
         <v>1327</v>
       </c>
-      <c r="M538" s="111"/>
+      <c r="M538" s="66"/>
       <c r="N538" s="9"/>
       <c r="O538" s="9"/>
       <c r="P538" s="9"/>
